--- a/parser_data/position_parser_data.xlsx
+++ b/parser_data/position_parser_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\intellij_projects\freelance\wildberries_parser_1\parser_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4E142B-62C3-4C14-87AB-03956608614C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C56C0218-6C4D-43A3-B2EF-698492CE02C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -363,42 +363,43 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>133412327</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2">
-        <v>133412327</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3">
+        <v>133412327</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3">
-        <v>133412327</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
